--- a/SAE_3_01/fichiers genere/S6BFA.xlsx
+++ b/SAE_3_01/fichiers genere/S6BFA.xlsx
@@ -3268,10 +3268,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -3288,10 +3296,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -3308,10 +3324,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -5027,10 +5051,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -5047,10 +5079,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -5067,10 +5107,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -6786,10 +6834,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -6806,10 +6862,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -8545,10 +8609,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -8565,10 +8637,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -10304,10 +10384,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -12063,10 +12151,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S6BFA.xlsx
+++ b/SAE_3_01/fichiers genere/S6BFA.xlsx
@@ -7,12 +7,12 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R6.01 Initiation à l'entrprenar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R6.02 Droit du numérique et de " sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R6.03 Communication   organisat" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R6.04 PPP" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R6.B.05 Optimisation des servic" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R6.B.06 Cloud computing" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R6.01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R6.02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R6.03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R6.04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R6.B.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R6.B.06" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -10386,11 +10386,15 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="inlineStr">
         <is>
           <t>TP 2H</t>
@@ -10412,10 +10416,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -10432,10 +10448,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 6H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -12153,14 +12181,18 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E35" s="27" t="n"/>
@@ -12179,10 +12211,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12199,10 +12243,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
